--- a/kategoriler/Özel Ders Arayanlar.xlsx
+++ b/kategoriler/Özel Ders Arayanlar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\OneDrive\Desktop\kategoriler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EAD4B5-4544-4682-8D01-97CC7D78F4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B092F2-7F44-4E7F-AC85-EF082469B381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14055" yWindow="465" windowWidth="14475" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="150">
   <si>
     <t xml:space="preserve">Özel Ders Arayanlar </t>
   </si>
@@ -474,7 +474,7 @@
     <t>ALT KATEGORİ</t>
   </si>
   <si>
-    <t>Aradığınız Ürünün Özellikleri</t>
+    <t>Aradığınız Ürünün Özellikleri KISMI(attribute)</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -810,11 +810,11 @@
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="90">
+    <row r="1" spans="1:4" ht="144">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -838,6 +838,9 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -850,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -864,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -878,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -889,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -906,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -914,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -934,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -948,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -962,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -973,10 +976,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -990,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -998,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1018,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1032,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1046,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1060,7 +1063,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1074,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1088,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1102,7 +1105,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1116,7 +1119,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1130,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1144,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1158,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1172,7 +1175,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1186,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1200,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1214,7 +1217,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1228,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1242,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1256,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1270,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1284,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1298,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1312,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1326,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1340,7 +1343,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1354,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1368,7 +1371,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1382,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1396,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1410,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1424,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1438,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1452,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1466,7 +1469,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1480,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1494,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1508,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1522,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1536,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1550,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1564,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1578,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1592,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1606,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1617,10 +1620,10 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1634,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1648,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1662,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1673,10 +1676,10 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1690,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1698,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1718,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1732,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1746,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1757,10 +1760,10 @@
         <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1774,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1782,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1802,7 +1805,7 @@
         <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1816,7 +1819,7 @@
         <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1827,10 +1830,10 @@
         <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1844,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1852,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1872,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1886,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1900,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1914,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1928,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1942,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1956,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1970,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1984,7 +1987,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1998,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2012,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2026,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2040,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2054,7 +2057,7 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2068,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2082,7 +2085,7 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2096,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2110,7 +2113,7 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2124,7 +2127,7 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2138,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2152,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2166,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2180,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2194,7 +2197,7 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2208,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2222,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2236,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2250,7 +2253,7 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2264,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2278,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2292,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2306,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2320,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2334,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2348,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2359,10 +2362,10 @@
         <v>63</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2376,7 +2379,7 @@
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2384,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2404,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2418,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2432,7 +2435,7 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2446,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2460,7 +2463,7 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2474,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2488,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2502,7 +2505,7 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2516,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2530,7 +2533,7 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2541,10 +2544,10 @@
         <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2558,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2572,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2583,10 +2586,10 @@
         <v>100</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2600,7 +2603,7 @@
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2608,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2628,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2642,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2656,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2670,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2684,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2698,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2712,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2726,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2740,7 +2743,7 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2754,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2768,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2782,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2796,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2810,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2824,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2838,7 +2841,7 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2852,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2866,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2880,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2894,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2908,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2922,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2936,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2950,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2961,10 +2964,10 @@
         <v>112</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2978,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2992,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3003,10 +3006,10 @@
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3020,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3028,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3048,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3062,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3070,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3090,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3104,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3115,10 +3118,10 @@
         <v>138</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3132,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3140,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3160,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3174,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3188,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3202,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3213,10 +3216,10 @@
         <v>139</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3230,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3238,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3258,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3272,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3286,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3300,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3311,10 +3314,10 @@
         <v>142</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3328,7 +3331,7 @@
         <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3336,13 +3339,13 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3356,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3370,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3381,10 +3384,10 @@
         <v>143</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3398,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3406,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3426,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3440,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3454,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3465,10 +3468,10 @@
         <v>144</v>
       </c>
       <c r="C190" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3482,7 +3485,7 @@
         <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3490,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3510,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3524,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3538,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3552,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3563,10 +3566,10 @@
         <v>145</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3580,7 +3583,7 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3588,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3608,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3622,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3636,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3647,10 +3650,10 @@
         <v>146</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3664,20 +3667,6 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" t="s">
-        <v>146</v>
-      </c>
-      <c r="C205" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" t="s">
         <v>9</v>
       </c>
     </row>
